--- a/data/HR1/A_BJ_35_1/A_BJ_35_1_2030.xlsx
+++ b/data/HR1/A_BJ_35_1/A_BJ_35_1_2030.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_BJ_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7995A8B-7B33-4E5C-86DF-BF0EA11E825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E11FCDE-FC85-4515-8BF2-C8F976C9D24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,16 +673,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -5503,11 +5503,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5802,7 +5802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5813,7 +5813,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5827,10 +5827,10 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -5853,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -5873,7 +5873,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -13022,99 +13022,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0727174336256877</v>
+        <v>0.96544569026311899</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0163849681758876</v>
+        <v>0.91474647135829878</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84832737744818498</v>
+        <v>0.76349463970336651</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96117133628263141</v>
+        <v>0.86505420265436839</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94261448962122396</v>
+        <v>0.84835304065910166</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94667100081586109</v>
+        <v>0.85200390073427501</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0444559394492858</v>
+        <v>0.94001034550435725</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1288299029539959</v>
+        <v>1.0159469126585963</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1768846886669095</v>
+        <v>1.0591962198002187</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1436348250443846</v>
+        <v>1.0292713425399462</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1287473133721924</v>
+        <v>1.0158725820349732</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2412415090817743</v>
+        <v>1.1171173581735971</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2100353396772574</v>
+        <v>1.0890318057095316</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2102386489491537</v>
+        <v>1.0892147840542383</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1762170194713251</v>
+        <v>1.0585953175241927</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.16006595852491</v>
+        <v>1.0440593626724188</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1637801546733324</v>
+        <v>1.0474021392059991</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0443865491842834</v>
+        <v>0.93994789426585501</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2597643213273355</v>
+        <v>1.133787889194602</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.277894990730351</v>
+        <v>1.1501054916573157</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1957771906509813</v>
+        <v>1.0761994715858831</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.222331561925583</v>
+        <v>1.1000984057330248</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1317823265865123</v>
+        <v>1.0186040939278611</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99815001816362992</v>
+        <v>0.89833501634726698</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -13123,99 +13123,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.90315403210183021</v>
+        <v>-0.81283862889164715</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4704295957519189</v>
+        <v>-1.3233866361767268</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.77687745966823685</v>
+        <v>-0.69918971370141325</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.7421784229323144</v>
+        <v>-0.66796058063908303</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.16811025887398</v>
+        <v>-1.051299232986582</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.944993161946472</v>
+        <v>-1.7504938457518249</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5748157920204289</v>
+        <v>-1.4173342128183859</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2612859217499024</v>
+        <v>-1.1351573295749122</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0876859018584066</v>
+        <v>-0.97891731167256602</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0576039868902576</v>
+        <v>-0.95184358820123194</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1307583133780221</v>
+        <v>-1.0176824820402199</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0263444458455362</v>
+        <v>-0.92371000126098257</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.0691245728351504</v>
+        <v>-0.96221211555163522</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.177982052686257</v>
+        <v>-1.0601838474176313</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.354881075882163</v>
+        <v>-1.2193929682939466</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.498491350778802</v>
+        <v>-1.3486422157009217</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5708602878843372</v>
+        <v>-1.4137742590959035</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3890336924367317</v>
+        <v>-1.2501303231930585</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2247006290633202</v>
+        <v>-1.1022305661569882</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46796397161331943</v>
+        <v>-0.42116757445198749</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2098955320140338</v>
+        <v>-0.18890597881263041</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.64867599062191572</v>
+        <v>-0.5838083915597243</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.1808515376082835</v>
+        <v>-1.0627663838474553</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5973412895777226</v>
+        <v>-1.4376071606199503</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -13224,99 +13224,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1873733727115044E-2</v>
+        <v>-6.4686360354403533E-2</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25040352200237237</v>
+        <v>-0.22536316980213511</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.86505305916406772</v>
+        <v>-0.77854775324766101</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4604796512490422E-2</v>
+        <v>4.9144316861241384E-2</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4465525077328268E-2</v>
+        <v>4.001897256959544E-2</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.16292510246133332</v>
+        <v>0.1466325922152</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16650563112567915</v>
+        <v>-0.14985506801311124</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.57432453189998567</v>
+        <v>-0.5168920787099871</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.67107631615984287</v>
+        <v>-0.60396868454385855</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44685914250148556</v>
+        <v>-0.402173228251337</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47160931432902131</v>
+        <v>-0.42444838289611919</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.53002543609220654</v>
+        <v>-0.47702289248298585</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41138608371304713</v>
+        <v>-0.37024747534174246</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48610391732800018</v>
+        <v>-0.43749352559520016</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.84226814773033021</v>
+        <v>-0.75804133295729714</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24103463116998294</v>
+        <v>-0.21693116805298462</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2402595429610474</v>
+        <v>-0.21623358866494266</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26290054580256483</v>
+        <v>-0.23661049122230834</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23957475519759802</v>
+        <v>-0.21561727967783823</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15440586321396008</v>
+        <v>-0.13896527689256408</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24945940670613279</v>
+        <v>-0.22451346603551953</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21614125276167229</v>
+        <v>-0.19452712748550507</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.3199866014697448E-2</v>
+        <v>-3.8879879413227701E-2</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10627406271601487</v>
+        <v>9.5646656444413392E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13325,99 +13325,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.929996815975823</v>
+        <v>1.7369971343782407</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.775168976309927</v>
+        <v>1.5976520786789343</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7082617858549072</v>
+        <v>1.5374356072694166</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7041140432049529</v>
+        <v>1.5337026388844577</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6823329743513864</v>
+        <v>1.5140996769162478</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5958279818999834</v>
+        <v>1.436245183709985</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9322311870137832</v>
+        <v>1.7390080683124047</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4990007318043075</v>
+        <v>2.2491006586238771</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0692735126728254</v>
+        <v>2.7623461614055427</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4483126546286265</v>
+        <v>3.1034813891657635</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4012719488499554</v>
+        <v>3.0611447539649599</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5946916326330611</v>
+        <v>3.2352224693697553</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6020104886200035</v>
+        <v>3.2418094397580033</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4835794872313026</v>
+        <v>3.1352215385081723</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3814836652453586</v>
+        <v>3.0433352987208231</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1383017762758585</v>
+        <v>2.8244715986482727</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.052412421583504</v>
+        <v>2.7471711794251537</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.052412421583504</v>
+        <v>2.7471711794251537</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.052412421583504</v>
+        <v>2.7471711794251537</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.052412421583504</v>
+        <v>2.7471711794251537</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0620322270735558</v>
+        <v>2.7558290043662002</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1157623848984626</v>
+        <v>2.8041861464086164</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8149782607078007</v>
+        <v>2.5334804346370206</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3894003361404494</v>
+        <v>2.1504603025264046</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -13426,99 +13426,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1205294607966967</v>
+        <v>1.9084765147170271</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8805145519310227</v>
+        <v>1.6924630967379204</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7570559435366984</v>
+        <v>1.5813503491830285</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7037388011941019</v>
+        <v>1.5333649210746918</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7313558901584847</v>
+        <v>1.5582203011426363</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7332482990329887</v>
+        <v>1.5599234691296897</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.613465995456917</v>
+        <v>2.3521193959112252</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1033780358122809</v>
+        <v>2.793040232231053</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4835668510252864</v>
+        <v>3.1352101659227576</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6311428073469383</v>
+        <v>3.2680285266122442</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1973941452889205</v>
+        <v>2.8776547307600286</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8010038054125372</v>
+        <v>3.4209034248712835</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.854769927246247</v>
+        <v>3.4692929345216226</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6455951582666817</v>
+        <v>3.2810356424400133</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3006352407598012</v>
+        <v>2.9705717166838213</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1481881471493232</v>
+        <v>2.8333693324343905</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1310506475000666</v>
+        <v>2.8179455827500601</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0811351222631989</v>
+        <v>2.7730216100368792</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8856758324463843</v>
+        <v>2.5971082492017459</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0925392794221809</v>
+        <v>2.7832853514799627</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3418375838867909</v>
+        <v>3.007653825498112</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2020463526126726</v>
+        <v>2.881841717351405</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6783009607474875</v>
+        <v>2.4104708646727384</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2165861486116669</v>
+        <v>1.9949275337505004</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -13527,99 +13527,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43307952126624882</v>
+        <v>0.38977156913962391</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41836830456455959</v>
+        <v>0.37653147410810367</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43995187169545957</v>
+        <v>0.39595668452591365</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43286026469692074</v>
+        <v>0.3895742382272287</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45634192436718152</v>
+        <v>0.41070773193046339</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42685313774296801</v>
+        <v>0.38416782396867122</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40755852585545621</v>
+        <v>0.36680267326991062</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58896648972918919</v>
+        <v>0.53006984075627028</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74014431661393942</v>
+        <v>0.66612988495254544</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77658082416890317</v>
+        <v>0.69892274175201285</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76122619333017594</v>
+        <v>0.68510357399715838</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69606827649625125</v>
+        <v>0.62646144884662613</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63707162505442749</v>
+        <v>0.57336446254898477</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61354743925768196</v>
+        <v>0.55219269533191373</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61471859331429846</v>
+        <v>0.55324673398286861</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65788326115086015</v>
+        <v>0.59209493503577426</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.67171052906665363</v>
+        <v>0.60453947615998826</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65906359391327274</v>
+        <v>0.59315723452194546</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63785967982770597</v>
+        <v>0.5740737118449355</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74790918637519421</v>
+        <v>0.67311826773767469</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90243537885576963</v>
+        <v>0.81219184097019259</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97786331394099457</v>
+        <v>0.88007698254689515</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81624137747464642</v>
+        <v>0.73461723972718185</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52381420775718657</v>
+        <v>0.47143278698146796</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -13628,99 +13628,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50083188845257987</v>
+        <v>0.45074869960732183</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43629481252135749</v>
+        <v>0.39266533126922176</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43629481252135749</v>
+        <v>0.39266533126922176</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43629481252135749</v>
+        <v>0.39266533126922176</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43629481252135749</v>
+        <v>0.39266533126922176</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43629481252135749</v>
+        <v>0.39266533126922176</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52485287310830309</v>
+        <v>0.47236758579747284</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76185818007234984</v>
+        <v>0.68567236206511484</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87241194106560915</v>
+        <v>0.78517074695904832</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.87693453905700891</v>
+        <v>0.78924108515130798</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82815841969069759</v>
+        <v>0.74534257772162793</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.82937997591664581</v>
+        <v>0.74644197832498127</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83734309446087518</v>
+        <v>0.75360878501478779</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.83734309446087518</v>
+        <v>0.75360878501478779</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78006159963471799</v>
+        <v>0.70205543967124617</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6629873123225859</v>
+        <v>0.5966885810903273</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6629873123225859</v>
+        <v>0.5966885810903273</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6629873123225859</v>
+        <v>0.5966885810903273</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6760323255061863</v>
+        <v>0.6084290929555678</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8158676858954903</v>
+        <v>0.73428091730594125</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88643604623334282</v>
+        <v>0.79779244161000862</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89357242429336281</v>
+        <v>0.80421518186402652</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76002718781413214</v>
+        <v>0.68402446903271896</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63113368564559447</v>
+        <v>0.56802031708103495</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13729,99 +13729,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70101894004420895</v>
+        <v>0.63091704603978804</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63383325001120494</v>
+        <v>0.5704499250100844</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61636645443708316</v>
+        <v>0.55472980899337487</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61486819683359106</v>
+        <v>0.55338137715023195</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61174827777510565</v>
+        <v>0.55057344999759517</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61842556662838488</v>
+        <v>0.55658300996554644</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63346645841620119</v>
+        <v>0.57011981257458111</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68370997691498492</v>
+        <v>0.61533897922348646</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78724495239642467</v>
+        <v>0.70852045715678225</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8687118377030999</v>
+        <v>0.78184065393279001</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9363105807591332</v>
+        <v>0.84267952268321988</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94359162573389721</v>
+        <v>0.84923246316050749</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94949043645131515</v>
+        <v>0.85454139280618369</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88899949545999779</v>
+        <v>0.80009954591399801</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81849718426315643</v>
+        <v>0.73664746583684082</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81021437270998242</v>
+        <v>0.72919293543898422</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78839167119904319</v>
+        <v>0.70955250407913883</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.771733262451611</v>
+        <v>0.69455993620644996</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77889090357487345</v>
+        <v>0.70100181321738608</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7967578569350473</v>
+        <v>0.71708207124154255</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90790979174487618</v>
+        <v>0.81711881257038854</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9528529699144912</v>
+        <v>0.85756767292304215</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88752035734469337</v>
+        <v>0.79876832161022404</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72914318535194189</v>
+        <v>0.65622886681674775</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13830,99 +13830,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56081516630084038</v>
+        <v>0.5047336496707564</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50706659475326321</v>
+        <v>0.45635993527793695</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49309315453989394</v>
+        <v>0.44378383908590452</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49189453569325592</v>
+        <v>0.44270508212393034</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48939857341714982</v>
+        <v>0.44045871607543485</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49474044128967787</v>
+        <v>0.44526639716071009</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50677318024761975</v>
+        <v>0.45609586222285781</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54696799804990426</v>
+        <v>0.49227119824491383</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62979594089433699</v>
+        <v>0.56681634680490334</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69496944463479104</v>
+        <v>0.62547250017131195</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74904845709916268</v>
+        <v>0.6741436113892465</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7548732863216443</v>
+        <v>0.67938595768947985</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75959235366593825</v>
+        <v>0.68363311829934448</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71119960387614201</v>
+        <v>0.64007964348852775</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65479774816133951</v>
+        <v>0.58931797334520564</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64817148465332708</v>
+        <v>0.58335433618799437</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63071334972307891</v>
+        <v>0.56764201475077103</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61738660470558815</v>
+        <v>0.55564794423502939</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62311270934523988</v>
+        <v>0.56080143841071584</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63740628930210985</v>
+        <v>0.57366566037189881</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72632785667114652</v>
+        <v>0.6536950710040319</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76228235265634725</v>
+        <v>0.68605411739071254</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71001629038064107</v>
+        <v>0.63901466134257701</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58331453927178101</v>
+        <v>0.52498308534460292</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13931,99 +13931,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56081516630084038</v>
+        <v>0.5047336496707564</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50706659475326321</v>
+        <v>0.45635993527793695</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49309315453989394</v>
+        <v>0.44378383908590452</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49189453569325592</v>
+        <v>0.44270508212393034</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.48939857341714982</v>
+        <v>0.44045871607543485</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49474044128967787</v>
+        <v>0.44526639716071009</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.50677318024761975</v>
+        <v>0.45609586222285781</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54696799804990426</v>
+        <v>0.49227119824491383</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62979594089433699</v>
+        <v>0.56681634680490334</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69496944463479104</v>
+        <v>0.62547250017131195</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74904845709916268</v>
+        <v>0.6741436113892465</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7548732863216443</v>
+        <v>0.67938595768947985</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75959235366593825</v>
+        <v>0.68363311829934448</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71119960387614201</v>
+        <v>0.64007964348852775</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65479774816133951</v>
+        <v>0.58931797334520564</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.64817148465332708</v>
+        <v>0.58335433618799437</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63071334972307891</v>
+        <v>0.56764201475077103</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61738660470558815</v>
+        <v>0.55564794423502939</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62311270934523988</v>
+        <v>0.56080143841071584</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63740628930210985</v>
+        <v>0.57366566037189881</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72632785667114652</v>
+        <v>0.6536950710040319</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.76228235265634725</v>
+        <v>0.68605411739071254</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71001629038064107</v>
+        <v>0.63901466134257701</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58331453927178101</v>
+        <v>0.52498308534460292</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -14032,99 +14032,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6443603201343517</v>
+        <v>3.2799242881209167</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2220476610272426</v>
+        <v>2.8998428949245185</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0544516259315198</v>
+        <v>2.7490064633383682</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9011985668707285</v>
+        <v>2.6110787101836554</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8912563391614605</v>
+        <v>2.6021307052453149</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8832677792719643</v>
+        <v>2.5949410013447678</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4917369953725927</v>
+        <v>3.1425632958353336</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2583844739663448</v>
+        <v>3.8325460265697107</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8288949251268614</v>
+        <v>4.3460054326141746</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.947537765038815</v>
+        <v>4.4527839885349341</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0242855942634126</v>
+        <v>4.5218570348370717</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3520342220837671</v>
+        <v>4.8168307998753912</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3824723909670968</v>
+        <v>4.844225151870388</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2905382372092715</v>
+        <v>4.7614844134883443</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1326506900440956</v>
+        <v>4.6193856210396858</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8932728133932288</v>
+        <v>4.403945532053906</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8487156176341717</v>
+        <v>4.3638440558707536</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8271616025572701</v>
+        <v>4.3444454423015433</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9522271451825235</v>
+        <v>4.4570044306642718</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1773586268062326</v>
+        <v>4.6596227641256096</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3723031395137388</v>
+        <v>4.8350728255623645</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4863619535557921</v>
+        <v>4.9377257582002132</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0618555499768281</v>
+        <v>4.5556699949791453</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3809722953508548</v>
+        <v>3.9428750658157696</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -14133,99 +14133,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3625378554403049</v>
+        <v>3.0262840698962745</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0211664552627733</v>
+        <v>2.7190498097364961</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8303849980645017</v>
+        <v>2.5473464982580518</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8069444642519072</v>
+        <v>2.5262500178267171</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8517958666257792</v>
+        <v>2.5666162799632013</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.8820107883613511</v>
+        <v>2.5938097095252162</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3591752018468282</v>
+        <v>3.0232576816621455</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.080274646206413</v>
+        <v>3.6722471815857713</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6127404129832374</v>
+        <v>4.1514663716849132</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9064717059840159</v>
+        <v>4.4158245353856147</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0807637514895863</v>
+        <v>4.5726873763406282</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4967272764304207</v>
+        <v>4.9470545487873787</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5476954809688097</v>
+        <v>4.9929259328719295</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5452518016520562</v>
+        <v>4.9907266214868509</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.234716010195851</v>
+        <v>4.7112444091762669</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9490471947602828</v>
+        <v>4.4541424752842547</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.646752965115212</v>
+        <v>4.1820776686036911</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5656945603719903</v>
+        <v>4.1091251043347921</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4045833541254424</v>
+        <v>3.9641250187128976</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4084660180044546</v>
+        <v>3.9676194162040099</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4578582594050902</v>
+        <v>4.0120724334645814</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5867988676678308</v>
+        <v>4.1281189809010472</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3538455820284288</v>
+        <v>3.9184610238255861</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7455953446958068</v>
+        <v>3.3710358102262261</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -14234,99 +14234,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.479595125544515</v>
+        <v>3.1316356129900633</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9971428375201667</v>
+        <v>3.5974285537681503</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6215260516457519</v>
+        <v>2.3593734464811766</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5628250431457982</v>
+        <v>3.2065425388312185</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2644404541404155</v>
+        <v>2.9379964087263741</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1867618365748251</v>
+        <v>2.8680856529173426</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8896828259501768</v>
+        <v>3.500714543355159</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.789243514468676</v>
+        <v>3.4103191630218084</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1550387262331041</v>
+        <v>3.7395348536097934</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2318563173758221</v>
+        <v>3.8086706856382397</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8265033575646359</v>
+        <v>3.4438530218081724</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9321585878064149</v>
+        <v>3.5389427290257731</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1214977193184348</v>
+        <v>3.7093479473865916</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0430398615403869</v>
+        <v>3.6387358753863479</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1429871343260789</v>
+        <v>3.7286884208934712</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3146449100385977</v>
+        <v>3.8831804190347379</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.316073585919419</v>
+        <v>3.884466227327477</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2768231349361923</v>
+        <v>3.8491408214425733</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9856071226655163</v>
+        <v>3.5870464103989645</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.2876097810542468</v>
+        <v>3.8588488029488222</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3268477422402629</v>
+        <v>3.8941629680162366</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0270545015735726</v>
+        <v>3.6243490514162153</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5905538307654989</v>
+        <v>3.2314984476889492</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9854356028744711</v>
+        <v>3.5868920425870239</v>
       </c>
     </row>
   </sheetData>
@@ -20052,99 +20052,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3218152345925927</v>
+        <v>0.28963371113333347</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30491551410341922</v>
+        <v>0.27442396269307728</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25449822337044964</v>
+        <v>0.22904840103340468</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28835140764211881</v>
+        <v>0.25951626687790696</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28278433299630118</v>
+        <v>0.25450589969667103</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28400130550045893</v>
+        <v>0.25560117495041301</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31333678709048635</v>
+        <v>0.28200310838143772</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33864898102219282</v>
+        <v>0.30478408291997355</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35306539045756369</v>
+        <v>0.31775885141180732</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34309047229018996</v>
+        <v>0.30878142506117096</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33862418913136427</v>
+        <v>0.30476177021822787</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37237245460156831</v>
+        <v>0.33513520914141148</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36301060640806349</v>
+        <v>0.32670954576725714</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36307158755200952</v>
+        <v>0.32676442879680856</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35286510696761897</v>
+        <v>0.31757859627085705</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34801979018532331</v>
+        <v>0.31321781116679098</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34913405503636508</v>
+        <v>0.31422064953272855</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31331596700772812</v>
+        <v>0.28198437030695533</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37792928438517048</v>
+        <v>0.34013635594665348</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38336850660428506</v>
+        <v>0.3450316559438566</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35873316057395904</v>
+        <v>0.32285984451656319</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36669946257115982</v>
+        <v>0.33002951631404381</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33953469046780993</v>
+        <v>0.30558122142102895</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29944500544908897</v>
+        <v>0.26950050490418009</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -20153,99 +20153,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.27094621638787847</v>
+        <v>-0.24385159474909066</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44112885957980896</v>
+        <v>-0.39701597362182811</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23306324240535733</v>
+        <v>-0.20975691816482162</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22265353889272438</v>
+        <v>-0.20038818500345196</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35043308029004439</v>
+        <v>-0.31538977226103992</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.58349795947075023</v>
+        <v>-0.52514816352367522</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47244473422746391</v>
+        <v>-0.42520026080471751</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.37838579454451587</v>
+        <v>-0.3405472150900643</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32630579158032458</v>
+        <v>-0.29367521242229211</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31728121671447274</v>
+        <v>-0.28555309504302551</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3392275060264367</v>
+        <v>-0.30530475542379304</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30790334989617002</v>
+        <v>-0.27711301490655299</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32073739174712612</v>
+        <v>-0.28866365257241355</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35339463007135025</v>
+        <v>-0.31805516706421522</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40646433778093644</v>
+        <v>-0.36581790400284281</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44954739584846076</v>
+        <v>-0.40459265626361468</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47125804957539652</v>
+        <v>-0.42413224461785687</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41671013100626519</v>
+        <v>-0.37503911790563871</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36741019097143918</v>
+        <v>-0.33066917187429529</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14038919110858866</v>
+        <v>-0.1263502719977298</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.2968681002419979E-2</v>
+        <v>-5.667181290217798E-2</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19460279831279628</v>
+        <v>-0.17514251848151666</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35425544626619743</v>
+        <v>-0.3188299016395777</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47920236772754998</v>
+        <v>-0.43128213095479501</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20254,99 +20254,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.1562127626278318E-2</v>
+        <v>-1.9405914863650488E-2</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.512105096960385E-2</v>
+        <v>-6.7608945872643461E-2</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25951591211811242</v>
+        <v>-0.23356432090630119</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6381425814495476E-2</v>
+        <v>1.4743283233045929E-2</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3339625238180138E-2</v>
+        <v>1.2005662714362125E-2</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8877516848333975E-2</v>
+        <v>4.3989765163500581E-2</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.9951676949266464E-2</v>
+        <v>-4.4956509254339819E-2</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17229736069621726</v>
+        <v>-0.15506762462659551</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20132289860202479</v>
+        <v>-0.1811906087418223</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13405772360467894</v>
+        <v>-0.12065195124421105</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14148279354789201</v>
+        <v>-0.12733451419310279</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15900762331951815</v>
+        <v>-0.14310686098756636</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12341582699095012</v>
+        <v>-0.11107424429185511</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14583118007869353</v>
+        <v>-0.13124806207082418</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25268045295346436</v>
+        <v>-0.22741240765811796</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2310384846108577E-2</v>
+        <v>-6.5079346361497717E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2077880157044957E-2</v>
+        <v>-6.4870092141340471E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.887017124891324E-2</v>
+        <v>-7.0983154124021924E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.1872412293806184E-2</v>
+        <v>-6.4685171064425576E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.6321778485361897E-2</v>
+        <v>-4.168960063682571E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.4837825015097351E-2</v>
+        <v>-6.735404251358762E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.4842372074429791E-2</v>
+        <v>-5.8358134866986808E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2959938406199405E-2</v>
+        <v>-1.1663944565579464E-2</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1882198918223394E-2</v>
+        <v>2.8693979026401053E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20355,99 +20355,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37376478355825388</v>
+        <v>0.33638830520242846</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3241292445118425</v>
+        <v>0.29171632006065823</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1170816190145533</v>
+        <v>0.10537345711309798</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0801614084773524E-2</v>
+        <v>8.1721452676296186E-2</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0801614084773524E-2</v>
+        <v>8.1721452676296186E-2</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0801614084773524E-2</v>
+        <v>8.1721452676296186E-2</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12201304294402268</v>
+        <v>0.10981173864962042</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44391939636977568</v>
+        <v>0.3995274567327981</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53740834405390892</v>
+        <v>0.48366750964851807</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57437300072228847</v>
+        <v>0.51693570065005956</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51486022070527315</v>
+        <v>0.46337419863474588</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20456,99 +20456,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6361588487504104</v>
+        <v>0.5725429638753694</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56415437196122908</v>
+        <v>0.50773893476510623</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52711677742990171</v>
+        <v>0.47440509968691152</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51112161558135605</v>
+        <v>0.46000945402322041</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51940674715096424</v>
+        <v>0.46746607243586785</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51997448295256721</v>
+        <v>0.46797703465731044</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78403979713544625</v>
+        <v>0.70563581742190173</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93101341262072024</v>
+        <v>0.8379120713586482</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0450700568092148</v>
+        <v>0.94056305112829319</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0893428403270458</v>
+        <v>0.98040855629434132</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95921823908178994</v>
+        <v>0.863296415173611</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1403011190993297</v>
+        <v>1.0262710071893968</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1564309845557963</v>
+        <v>1.0407878861002167</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0936785456029685</v>
+        <v>0.98431069104267155</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99019057110171882</v>
+        <v>0.89117151399154704</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94445644752346181</v>
+        <v>0.85001080277111563</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93931518599106201</v>
+        <v>0.84538366739195581</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92434052729378002</v>
+        <v>0.83190647456440203</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.86570275010932252</v>
+        <v>0.77913247509839034</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.92776177068740262</v>
+        <v>0.83498559361866231</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0025512657808573</v>
+        <v>0.90229613920277163</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96061391291653841</v>
+        <v>0.86455252162488461</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80349029310453979</v>
+        <v>0.72314126379408583</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.66497584045402114</v>
+        <v>0.59847825640861907</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20557,99 +20557,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25984773453336635</v>
+        <v>0.23386296108002969</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2510209879944364</v>
+        <v>0.22591888919499278</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2639710869781855</v>
+        <v>0.23757397828036697</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25971614680512239</v>
+        <v>0.23374453212461016</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.27380515612193773</v>
+        <v>0.24642464050974397</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25611189991451155</v>
+        <v>0.2305007099230604</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24453514179177702</v>
+        <v>0.22008162761259933</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.35337992161764553</v>
+        <v>0.31804192945588095</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44408659146999246</v>
+        <v>0.3996779323229932</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46594850050785691</v>
+        <v>0.41935365045707124</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45673573026357878</v>
+        <v>0.41106215723722095</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41764097941240963</v>
+        <v>0.37587688147116866</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38224297202939894</v>
+        <v>0.34401867482645904</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36812846130216603</v>
+        <v>0.33131561517194941</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36883115598857902</v>
+        <v>0.33194804038972109</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39472994993318672</v>
+        <v>0.35525695493986803</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.40302632870220778</v>
+        <v>0.36272369583198699</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39543814433493346</v>
+        <v>0.35589432990144015</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38271582741779753</v>
+        <v>0.34444424467601781</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44874551858244593</v>
+        <v>0.40387096672420136</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54146121755287491</v>
+        <v>0.48731509579758742</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58671797334830922</v>
+        <v>0.52804617601347836</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4897448377470035</v>
+        <v>0.44077035397230319</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31428853066082696</v>
+        <v>0.28285967759474423</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20658,99 +20658,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15024955001785759</v>
+        <v>0.13522459501607184</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13088840471405946</v>
+        <v>0.11779956424265353</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13088840471405946</v>
+        <v>0.11779956424265353</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13088840471405946</v>
+        <v>0.11779956424265353</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13088840471405946</v>
+        <v>0.11779956424265353</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13088840471405946</v>
+        <v>0.11779956424265353</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15745583265073013</v>
+        <v>0.1417102493856571</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.2285574626560703</v>
+        <v>0.20570171639046328</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26172361047522197</v>
+        <v>0.23555124942769978</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26308038086286933</v>
+        <v>0.23677234277658241</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24844752290395181</v>
+        <v>0.22360277061355663</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24881401417320353</v>
+        <v>0.22393261275588319</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25120295536758025</v>
+        <v>0.22608265983082224</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25120295536758025</v>
+        <v>0.22608265983082224</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.23401851104921223</v>
+        <v>0.21061665994429102</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19889622523097969</v>
+        <v>0.17900660270788171</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19889622523097969</v>
+        <v>0.17900660270788171</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19889622523097969</v>
+        <v>0.17900660270788171</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20280972505658074</v>
+        <v>0.18252875255092266</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24476028474584446</v>
+        <v>0.22028425627126003</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26593077257521197</v>
+        <v>0.23933769531769081</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26807168599321796</v>
+        <v>0.24126451739389618</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22800815183935338</v>
+        <v>0.20520733665541804</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.18934012634107378</v>
+        <v>0.1704061137069664</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20759,99 +20759,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70101894004420895</v>
+        <v>0.63091704603978804</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63383325001120494</v>
+        <v>0.5704499250100844</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61636645443708316</v>
+        <v>0.55472980899337487</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61486819683359106</v>
+        <v>0.55338137715023195</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61174827777510565</v>
+        <v>0.55057344999759517</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61842556662838488</v>
+        <v>0.55658300996554644</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.63346645841620119</v>
+        <v>0.57011981257458111</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68370997691498492</v>
+        <v>0.61533897922348646</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78724495239642467</v>
+        <v>0.70852045715678225</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.8687118377030999</v>
+        <v>0.78184065393279001</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9363105807591332</v>
+        <v>0.84267952268321988</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94359162573389721</v>
+        <v>0.84923246316050749</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94949043645131515</v>
+        <v>0.85454139280618369</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88899949545999779</v>
+        <v>0.80009954591399801</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81849718426315643</v>
+        <v>0.73664746583684082</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81021437270998242</v>
+        <v>0.72919293543898422</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78839167119904319</v>
+        <v>0.70955250407913883</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.771733262451611</v>
+        <v>0.69455993620644996</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77889090357487345</v>
+        <v>0.70100181321738608</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7967578569350473</v>
+        <v>0.71708207124154255</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90790979174487618</v>
+        <v>0.81711881257038854</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9528529699144912</v>
+        <v>0.85756767292304215</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88752035734469337</v>
+        <v>0.79876832161022404</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.72914318535194189</v>
+        <v>0.65622886681674775</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20860,99 +20860,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18104491508841358</v>
+        <v>-0.16294042357957222</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17504524372125446</v>
+        <v>-0.15754071934912903</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17153221702374524</v>
+        <v>-0.1543789953213707</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17453969412067755</v>
+        <v>-0.15708572470860979</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16454837816724394</v>
+        <v>-0.14809354035051955</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16237936176699347</v>
+        <v>-0.14614142559029414</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20731231384475268</v>
+        <v>-0.18658108246027741</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17946017117648608</v>
+        <v>-0.16151415405883748</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14821782378106735</v>
+        <v>-0.1333960414029606</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10471141151721969</v>
+        <v>-9.424027036549773E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1200185383301224</v>
+        <v>-0.10801668449711016</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11848374985297011</v>
+        <v>-0.10663537486767309</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11793678157711888</v>
+        <v>-0.106143103419407</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11304085990560921</v>
+        <v>-0.10173677391504829</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15536413886940695</v>
+        <v>-0.13982772498246626</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15048646949547576</v>
+        <v>-0.1354378225459282</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15414454977713474</v>
+        <v>-0.13873009479942128</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16115015098844121</v>
+        <v>-0.1450351358895971</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16703289803219837</v>
+        <v>-0.15032960822897853</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18308698754736064</v>
+        <v>-0.16477828879262457</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16606696782414707</v>
+        <v>-0.14946027104173237</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12784735495212418</v>
+        <v>-0.11506261945691176</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13926401692460508</v>
+        <v>-0.12533761523214459</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15223718843425252</v>
+        <v>-0.13701346959082727</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20961,99 +20961,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18104491508841358</v>
+        <v>-0.16294042357957222</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17504524372125446</v>
+        <v>-0.15754071934912903</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17153221702374524</v>
+        <v>-0.1543789953213707</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17453969412067755</v>
+        <v>-0.15708572470860979</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16454837816724394</v>
+        <v>-0.14809354035051955</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16237936176699347</v>
+        <v>-0.14614142559029414</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20731231384475268</v>
+        <v>-0.18658108246027741</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17946017117648608</v>
+        <v>-0.16151415405883748</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14821782378106735</v>
+        <v>-0.1333960414029606</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10471141151721969</v>
+        <v>-9.424027036549773E-2</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1200185383301224</v>
+        <v>-0.10801668449711016</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11848374985297011</v>
+        <v>-0.10663537486767309</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11793678157711888</v>
+        <v>-0.106143103419407</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.11304085990560921</v>
+        <v>-0.10173677391504829</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15536413886940695</v>
+        <v>-0.13982772498246626</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15048646949547576</v>
+        <v>-0.1354378225459282</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15414454977713474</v>
+        <v>-0.13873009479942128</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16115015098844121</v>
+        <v>-0.1450351358895971</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16703289803219837</v>
+        <v>-0.15032960822897853</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18308698754736064</v>
+        <v>-0.16477828879262457</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16606696782414707</v>
+        <v>-0.14946027104173237</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12784735495212418</v>
+        <v>-0.11506261945691176</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13926401692460508</v>
+        <v>-0.12533761523214459</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15223718843425252</v>
+        <v>-0.13701346959082727</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -21062,99 +21062,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2098192027416785</v>
+        <v>1.0888372824675108</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0810939918623523</v>
+        <v>0.97298459267611714</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0572969563658321</v>
+        <v>0.95156726072924891</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97625543743801846</v>
+        <v>0.87862989369421662</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0594979612127435</v>
+        <v>0.95354816509146934</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93382540393159619</v>
+        <v>0.84044286353843656</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.99247447711840142</v>
+        <v>0.89322702940656129</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2818882420593987</v>
+        <v>1.1536994178534588</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5005915663033382</v>
+        <v>1.3505324096730045</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5509165819490027</v>
+        <v>1.3958249237541025</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6150758180516189</v>
+        <v>1.453568236246457</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6397807195261109</v>
+        <v>1.4758026475735</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6405790979971147</v>
+        <v>1.4765211881974034</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6164243294810858</v>
+        <v>1.4547818965329773</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4871850697824012</v>
+        <v>1.3384665628041612</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4199175147034706</v>
+        <v>1.2779257632331236</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3539025057140237</v>
+        <v>1.2185122551426213</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3661396388706408</v>
+        <v>1.2295256749835768</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3827532164914416</v>
+        <v>1.2444778948422974</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3743352358254306</v>
+        <v>1.2369017122428878</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3996444753025519</v>
+        <v>1.2596800277722968</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5098640788478352</v>
+        <v>1.3588776709630517</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3793239506461681</v>
+        <v>1.2413915555815513</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2993045416123914</v>
+        <v>1.1693740874511525</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -21163,99 +21163,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65478124150719463</v>
+        <v>0.58930311735647511</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65478124150719463</v>
+        <v>0.58930311735647511</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6444120782170113</v>
+        <v>0.57997087039531015</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62337115091706174</v>
+        <v>0.5610340358253556</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.61597937959160287</v>
+        <v>0.55438144163244263</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49207539936926115</v>
+        <v>0.44286785943233509</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45008739281279342</v>
+        <v>0.40507865353151407</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69082347390677357</v>
+        <v>0.62174112651609625</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81468013780688586</v>
+        <v>0.73321212402619729</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91700762732385921</v>
+        <v>0.82530686459147329</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.93491946812174331</v>
+        <v>0.84142752130956899</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0447248924224277</v>
+        <v>0.94025240318018488</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0385544746030342</v>
+        <v>0.93469902714273079</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0475183198477573</v>
+        <v>0.94276648786298167</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.98713706908329069</v>
+        <v>0.88842336217496165</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97672552232135457</v>
+        <v>0.87905297008921912</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78885389505582038</v>
+        <v>0.70996850555023827</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71245254414317516</v>
+        <v>0.64120728972885765</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70650478032817943</v>
+        <v>0.63585430229536144</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68414368859568064</v>
+        <v>0.61572931973611256</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.69918959957762739</v>
+        <v>0.62927063961986474</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73362550590592501</v>
+        <v>0.66026295531533252</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71275359818513551</v>
+        <v>0.64147823836662199</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70536057299966215</v>
+        <v>0.63482451569969589</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21264,99 +21264,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0438785181421804</v>
+        <v>0.9394906663279623</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1991428512560502</v>
+        <v>1.079228566130445</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78645781361668976</v>
+        <v>0.70781203225502076</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0688475148207757</v>
+        <v>0.96196276333869812</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97933215088300518</v>
+        <v>0.88139893579470463</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95602853933482446</v>
+        <v>0.86042568540134201</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1669048601734904</v>
+        <v>1.0502143741561414</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1367730460816448</v>
+        <v>1.0230957414734803</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2465116028536438</v>
+        <v>1.1218604425682794</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2695569154847348</v>
+        <v>1.1426012239362613</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.147951001638283</v>
+        <v>1.0331559014744547</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1796475729632598</v>
+        <v>1.0616828156669338</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2364493274331534</v>
+        <v>1.1128043946898383</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2129119573358944</v>
+        <v>1.091620761602305</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2428961387961952</v>
+        <v>1.1186065249165758</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2943934647526207</v>
+        <v>1.1649541182773586</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2948220784036761</v>
+        <v>1.1653398705633085</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2830469476135942</v>
+        <v>1.1547422528522349</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1956821150260382</v>
+        <v>1.0761139035234342</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.286282920050801</v>
+        <v>1.1576546280457209</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2980543192934142</v>
+        <v>1.1682488873640728</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2081163707440603</v>
+        <v>1.0873047336696544</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0771661514820927</v>
+        <v>0.96944953633388342</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.19563067297879</v>
+        <v>1.0760676056809111</v>
       </c>
     </row>
   </sheetData>
